--- a/Person/孙梦涵/任务四/吾宠用户故事.xlsx
+++ b/Person/孙梦涵/任务四/吾宠用户故事.xlsx
@@ -4,19 +4,118 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22740" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PROJECT VISION" sheetId="2" r:id="rId1"/>
+    <sheet name="PROJECT BACKLOG" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Luc Segers</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the project</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the descript of the Vision</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the customer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the supplier</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Luc Segers</author>
@@ -433,7 +532,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+  <si>
+    <t>PROJECT VISION</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>吾宠</t>
+  </si>
+  <si>
+    <t>Vision:</t>
+  </si>
+  <si>
+    <t>打造石家庄最大网上人宠互动平台，并在日后扩展到其他城市。</t>
+  </si>
+  <si>
+    <t>analysis of profit</t>
+  </si>
+  <si>
+    <t>充值兑换积分，积分可供用户人宠互动消费</t>
+  </si>
+  <si>
+    <t>活动推荐广告</t>
+  </si>
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -580,7 +706,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,7 +724,6 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -626,6 +751,91 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -636,6 +846,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -645,17 +870,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,101 +908,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,25 +922,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +948,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -823,67 +990,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,102 +1128,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1154,29 +1303,76 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,6 +1392,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1207,21 +1414,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,11 +1435,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,150 +1482,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1680,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -1537,16 +1788,16 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>250825</xdr:colOff>
+          <xdr:colOff>464185</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>123190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="[1]!OpenForm">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Button 15" hidden="1">
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
+                  <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1554,7 +1805,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="373380" y="76200"/>
+              <a:off x="525780" y="76200"/>
               <a:ext cx="1759585" cy="229870"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2120,35 +2371,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="44.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="32.4" spans="2:10">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="28"/>
+      <c r="C4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="28"/>
+      <c r="C7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="4.77777777777778" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="87.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="5.44444444444444" customWidth="1"/>
-    <col min="11" max="11" width="4.88888888888889" customWidth="1"/>
-    <col min="12" max="12" width="5.33333333333333" customWidth="1"/>
-    <col min="13" max="13" width="4.88888888888889" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="4.55555555555556" customWidth="1"/>
-    <col min="16" max="16" width="5.11111111111111" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="4.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="87.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="4.44444444444444" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="5.77777777777778" customWidth="1"/>
+    <col min="12" max="12" width="5.66666666666667" customWidth="1"/>
+    <col min="13" max="15" width="5.44444444444444" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
     <col min="17" max="17" width="5.22222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="32.4" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2166,66 +2545,66 @@
         <f>MAX('[1]PROJECT BACKLOG'!$A$6:$A$35)</f>
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>1</v>
+      <c r="B4" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:17">
+    <row r="5" ht="75.05" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2236,19 +2615,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2271,19 +2650,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2306,19 +2685,19 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -2341,19 +2720,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2376,19 +2755,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2411,19 +2790,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2446,19 +2825,19 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -2481,19 +2860,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -2516,19 +2895,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2551,19 +2930,19 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -2586,19 +2965,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2612,7 +2991,7 @@
     </row>
     <row r="17" ht="15.15" spans="1:17">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12">
@@ -2648,7 +3027,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" name="Button 15" r:id="rId4">
+            <control shapeId="3073" name="Button 1" r:id="rId4">
               <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2659,7 +3038,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>250825</xdr:colOff>
+                    <xdr:colOff>464185</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>123190</xdr:rowOff>
                   </to>

--- a/Person/孙梦涵/任务四/吾宠用户故事.xlsx
+++ b/Person/孙梦涵/任务四/吾宠用户故事.xlsx
@@ -4,15 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22740" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="21443" windowHeight="8675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT VISION" sheetId="2" r:id="rId1"/>
     <sheet name="PROJECT BACKLOG" sheetId="3" r:id="rId2"/>
+    <sheet name="User Model" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="RLSevirity">[1]SETUP!$O$2:$O$5</definedName>
+    <definedName name="RLStatus">[1]SETUP!$Q$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -532,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>PROJECT VISION</t>
   </si>
@@ -549,7 +554,7 @@
     <t>Vision:</t>
   </si>
   <si>
-    <t>打造石家庄最大网上人宠互动平台，并在日后扩展到其他城市。</t>
+    <t>打造石家庄最大网上人宠互动平台，丰富宠物生活并在日后扩展到其他城市。</t>
   </si>
   <si>
     <t>analysis of profit</t>
@@ -694,6 +699,42 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>发烧铲屎官</t>
+  </si>
+  <si>
+    <t>有很多宠物主子，养着过很多宠物，对于养宠有自己的理解和见地，也愿意与人分享</t>
+  </si>
+  <si>
+    <t>普通铲屎官</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有自己的一只宠物主子对于养宠有自己的理解和见地，虽然还停留在表面也愿意与人分享    </t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -702,11 +743,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,12 +763,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -739,6 +793,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -748,12 +819,11 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="宋体"/>
@@ -761,14 +831,83 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="63"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -779,6 +918,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -787,96 +942,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -885,10 +950,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,11 +965,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,11 +986,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -927,18 +996,25 @@
       <name val="Tahoma"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -954,7 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1042,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +1090,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,13 +1144,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,139 +1214,106 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="33">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1377,62 +1546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1457,10 +1570,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1474,6 +1604,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,10 +1651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,221 +1663,271 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="20" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="23" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2374,109 +2593,109 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="44.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="55.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="32.4" spans="2:10">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="28"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="28"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2502,7 +2721,7 @@
   </sheetPr>
   <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2526,81 +2745,81 @@
   </cols>
   <sheetData>
     <row r="2" ht="32.4" spans="2:12">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="4" ht="15.15" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="25">
         <f>MAX('[1]PROJECT BACKLOG'!$A$6:$A$35)</f>
         <v>13</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" ht="75.05" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2990,29 +3209,29 @@
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35">
         <v>11</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="19">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="42">
         <v>18</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="21"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3051,4 +3270,184 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="44.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="32.4" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="2:6">
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="2:6">
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="2:6">
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D9:D17">
+      <formula1>RLStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E9:E17">
+      <formula1>RLSevirity</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>